--- a/medicine/Psychotrope/Foster's_Group/Foster's_Group.xlsx
+++ b/medicine/Psychotrope/Foster's_Group/Foster's_Group.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Foster%27s_Group</t>
+          <t>Foster's_Group</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Foster's Group est un groupe australien spécialisé dans la brasserie et la production de vin, de cidre et de spiritueux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Foster%27s_Group</t>
+          <t>Foster's_Group</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La marque de bière créée par celui-ci à Melbourne en 1888 est aujourd'hui produite et distribuée internationalement, en partie sous licence. Une scission en 2011 sépare ses activités de vins dans une nouvelle entreprise, Treasury Wine Estates. Les activités brassicoles de Foster's Group sont, depuis 2011, détenues par SABMiller, après une OPA valorisant celles-ci à 9,9 milliards de dollars australiens.
 Foster's est aussi un sponsor important de plusieurs grands prix de Formule 1 dans le monde.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Foster%27s_Group</t>
+          <t>Foster's_Group</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Foster's</t>
         </is>
